--- a/xlsx/莫哈韦沙漠_intext.xlsx
+++ b/xlsx/莫哈韦沙漠_intext.xlsx
@@ -15,129 +15,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>莫哈韦沙漠</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%8B%E6%B2%99%E6%BC%A0</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_加州_莫哈韦沙漠</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内华达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>犹他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚利桑那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9B%86%E5%9C%B0%E6%B2%99%E6%BC%A0</t>
+  </si>
+  <si>
+    <t>大盆地沙漠</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%AF%BA%E5%85%B0%E6%B2%99%E6%BC%A0</t>
+  </si>
+  <si>
+    <t>索诺兰沙漠</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E9%AB%98%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>科罗拉多高原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%99%E6%BC%A0</t>
+  </si>
+  <si>
+    <t>科罗拉多沙漠</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%83%A1%E6%B0%B4%E7%9B%86%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>恶水盆地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1%E8%B0%B7</t>
+  </si>
+  <si>
+    <t>死亡谷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E8%8B%B1%E9%87%8C</t>
+  </si>
+  <si>
+    <t>平方英里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E5%8D%83%E7%B1%B3</t>
+  </si>
+  <si>
+    <t>平方千米</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0</t>
+  </si>
+  <si>
+    <t>沙漠</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加利福尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%86%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>盆地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E7%A9%BA%E7%B8%BD%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>美国太空总署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%98%9F</t>
+  </si>
+  <si>
+    <t>卫星</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E7%A9%BA%E7%BD%91%E7%BB%9C</t>
+  </si>
+  <si>
+    <t>深空网络</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%A6%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_加州_莫哈韦沙漠</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>內華達州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>猶他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亞利桑那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9B%86%E5%9C%B0%E6%B2%99%E6%BC%A0</t>
-  </si>
-  <si>
-    <t>大盆地沙漠</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%AF%BA%E5%85%B0%E6%B2%99%E6%BC%A0</t>
-  </si>
-  <si>
-    <t>索诺兰沙漠</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E9%AB%98%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>科羅拉多高原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%99%E6%BC%A0</t>
-  </si>
-  <si>
-    <t>科罗拉多沙漠</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%83%A1%E6%B0%B4%E7%9B%86%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>惡水盆地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1%E8%B0%B7</t>
-  </si>
-  <si>
-    <t>死亡谷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E8%8B%B1%E9%87%8C</t>
-  </si>
-  <si>
-    <t>平方英里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E5%8D%83%E7%B1%B3</t>
-  </si>
-  <si>
-    <t>平方千米</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0</t>
-  </si>
-  <si>
-    <t>沙漠</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%86%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>盆地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E7%A9%BA%E7%B8%BD%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>美國太空總署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%98%9F</t>
-  </si>
-  <si>
-    <t>衛星</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E7%A9%BA%E7%BD%91%E7%BB%9C</t>
-  </si>
-  <si>
-    <t>深空网络</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -486,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,7 +926,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -1097,6 +1106,64 @@
         <v>4</v>
       </c>
       <c r="I21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" t="n">
         <v>3</v>
       </c>
     </row>
